--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H2">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I2">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J2">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.7507086362996</v>
+        <v>7.818077</v>
       </c>
       <c r="N2">
-        <v>7.7507086362996</v>
+        <v>23.454231</v>
       </c>
       <c r="O2">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="P2">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="Q2">
-        <v>223.1513050018247</v>
+        <v>297.4509174229403</v>
       </c>
       <c r="R2">
-        <v>223.1513050018247</v>
+        <v>2677.058256806463</v>
       </c>
       <c r="S2">
-        <v>0.1539910997803741</v>
+        <v>0.1471713328149688</v>
       </c>
       <c r="T2">
-        <v>0.1539910997803741</v>
+        <v>0.1471713328149689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H3">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I3">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J3">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.9909473349292</v>
+        <v>22.011801</v>
       </c>
       <c r="N3">
-        <v>21.9909473349292</v>
+        <v>66.035403</v>
       </c>
       <c r="O3">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="P3">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="Q3">
-        <v>633.1432164838457</v>
+        <v>837.473256093691</v>
       </c>
       <c r="R3">
-        <v>633.1432164838457</v>
+        <v>7537.259304843219</v>
       </c>
       <c r="S3">
-        <v>0.4369162000824223</v>
+        <v>0.4143609855502656</v>
       </c>
       <c r="T3">
-        <v>0.4369162000824223</v>
+        <v>0.4143609855502656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H4">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I4">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J4">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.09693657671356</v>
+        <v>4.594576333333333</v>
       </c>
       <c r="N4">
-        <v>4.09693657671356</v>
+        <v>13.783729</v>
       </c>
       <c r="O4">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="P4">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="Q4">
-        <v>117.9552459657187</v>
+        <v>174.8078134200686</v>
       </c>
       <c r="R4">
-        <v>117.9552459657187</v>
+        <v>1573.270320780617</v>
       </c>
       <c r="S4">
-        <v>0.08139794679209708</v>
+        <v>0.08649056829406758</v>
       </c>
       <c r="T4">
-        <v>0.08139794679209708</v>
+        <v>0.08649056829406762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H5">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I5">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J5">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.967185155803</v>
+        <v>8.555183333333334</v>
       </c>
       <c r="N5">
-        <v>7.967185155803</v>
+        <v>25.66555</v>
       </c>
       <c r="O5">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="P5">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="Q5">
-        <v>229.3838987034117</v>
+        <v>325.4952760405722</v>
       </c>
       <c r="R5">
-        <v>229.3838987034117</v>
+        <v>2929.45748436515</v>
       </c>
       <c r="S5">
-        <v>0.1582920558450664</v>
+        <v>0.1610469855493971</v>
       </c>
       <c r="T5">
-        <v>0.1582920558450664</v>
+        <v>0.1610469855493972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H6">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I6">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J6">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.7507086362996</v>
+        <v>7.818077</v>
       </c>
       <c r="N6">
-        <v>7.7507086362996</v>
+        <v>23.454231</v>
       </c>
       <c r="O6">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="P6">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="Q6">
-        <v>12.31036646352876</v>
+        <v>12.64374854389067</v>
       </c>
       <c r="R6">
-        <v>12.31036646352876</v>
+        <v>113.793736895016</v>
       </c>
       <c r="S6">
-        <v>0.008495074095142427</v>
+        <v>0.006255813029938904</v>
       </c>
       <c r="T6">
-        <v>0.008495074095142427</v>
+        <v>0.006255813029938905</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H7">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I7">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J7">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.9909473349292</v>
+        <v>22.011801</v>
       </c>
       <c r="N7">
-        <v>21.9909473349292</v>
+        <v>66.035403</v>
       </c>
       <c r="O7">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="P7">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="Q7">
-        <v>34.92798314018252</v>
+        <v>35.59848244551201</v>
       </c>
       <c r="R7">
-        <v>34.92798314018252</v>
+        <v>320.3863420096081</v>
       </c>
       <c r="S7">
-        <v>0.02410292217122858</v>
+        <v>0.01761324575189298</v>
       </c>
       <c r="T7">
-        <v>0.02410292217122858</v>
+        <v>0.01761324575189298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H8">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I8">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J8">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.09693657671356</v>
+        <v>4.594576333333333</v>
       </c>
       <c r="N8">
-        <v>4.09693657671356</v>
+        <v>13.783729</v>
       </c>
       <c r="O8">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="P8">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="Q8">
-        <v>6.50711992977946</v>
+        <v>7.430557133727112</v>
       </c>
       <c r="R8">
-        <v>6.50711992977946</v>
+        <v>66.87501420354401</v>
       </c>
       <c r="S8">
-        <v>0.004490399706070894</v>
+        <v>0.003676455283455967</v>
       </c>
       <c r="T8">
-        <v>0.004490399706070894</v>
+        <v>0.003676455283455968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H9">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I9">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J9">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.967185155803</v>
+        <v>8.555183333333334</v>
       </c>
       <c r="N9">
-        <v>7.967185155803</v>
+        <v>25.66555</v>
       </c>
       <c r="O9">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="P9">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="Q9">
-        <v>12.65419377157066</v>
+        <v>13.83583032164445</v>
       </c>
       <c r="R9">
-        <v>12.65419377157066</v>
+        <v>124.5224728948</v>
       </c>
       <c r="S9">
-        <v>0.008732340667701642</v>
+        <v>0.006845625512537522</v>
       </c>
       <c r="T9">
-        <v>0.008732340667701642</v>
+        <v>0.006845625512537523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H10">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I10">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J10">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.7507086362996</v>
+        <v>7.818077</v>
       </c>
       <c r="N10">
-        <v>7.7507086362996</v>
+        <v>23.454231</v>
       </c>
       <c r="O10">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="P10">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="Q10">
-        <v>33.20198098111651</v>
+        <v>57.55085840663499</v>
       </c>
       <c r="R10">
-        <v>33.20198098111651</v>
+        <v>517.957725659715</v>
       </c>
       <c r="S10">
-        <v>0.02291185151763907</v>
+        <v>0.02847473663800106</v>
       </c>
       <c r="T10">
-        <v>0.02291185151763907</v>
+        <v>0.02847473663800106</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H11">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I11">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J11">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.9909473349292</v>
+        <v>22.011801</v>
       </c>
       <c r="N11">
-        <v>21.9909473349292</v>
+        <v>66.035403</v>
       </c>
       <c r="O11">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="P11">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="Q11">
-        <v>94.20338828781522</v>
+        <v>162.034480170255</v>
       </c>
       <c r="R11">
-        <v>94.20338828781522</v>
+        <v>1458.310321532295</v>
       </c>
       <c r="S11">
-        <v>0.06500738754523376</v>
+        <v>0.08017063996723085</v>
       </c>
       <c r="T11">
-        <v>0.06500738754523376</v>
+        <v>0.08017063996723085</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H12">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I12">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J12">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.09693657671356</v>
+        <v>4.594576333333333</v>
       </c>
       <c r="N12">
-        <v>4.09693657671356</v>
+        <v>13.783729</v>
       </c>
       <c r="O12">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="P12">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="Q12">
-        <v>17.55019014181739</v>
+        <v>33.82184800663167</v>
       </c>
       <c r="R12">
-        <v>17.55019014181739</v>
+        <v>304.396632059685</v>
       </c>
       <c r="S12">
-        <v>0.01211094455069865</v>
+        <v>0.01673421111801012</v>
       </c>
       <c r="T12">
-        <v>0.01211094455069865</v>
+        <v>0.01673421111801012</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H13">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I13">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J13">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.967185155803</v>
+        <v>8.555183333333334</v>
       </c>
       <c r="N13">
-        <v>7.967185155803</v>
+        <v>25.66555</v>
       </c>
       <c r="O13">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="P13">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="Q13">
-        <v>34.12930899984095</v>
+        <v>62.97688608841667</v>
       </c>
       <c r="R13">
-        <v>34.12930899984095</v>
+        <v>566.79197479575</v>
       </c>
       <c r="S13">
-        <v>0.0235517772463251</v>
+        <v>0.03115940049023342</v>
       </c>
       <c r="T13">
-        <v>0.0235517772463251</v>
+        <v>0.03115940049023343</v>
       </c>
     </row>
   </sheetData>
